--- a/output/fit_clients/fit_round_163.xlsx
+++ b/output/fit_clients/fit_round_163.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1797015875.795565</v>
+        <v>2055658575.709241</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09852771331783026</v>
+        <v>0.1017168552024555</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03674344261662376</v>
+        <v>0.02808728544536895</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>898507906.2146238</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1812408718.226093</v>
+        <v>2071876720.356844</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1185661681705622</v>
+        <v>0.1671011788411031</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0318352109485617</v>
+        <v>0.04891406109175101</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>906204370.088532</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3341948131.634753</v>
+        <v>4041311758.128688</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1632893644295283</v>
+        <v>0.1267253297897614</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02526418308369194</v>
+        <v>0.03815346033572013</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>59</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1670974033.343897</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3676790566.301898</v>
+        <v>4262852440.522717</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1086464112578894</v>
+        <v>0.1108516350966965</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03766411352902823</v>
+        <v>0.04902960735942078</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>65</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1838395308.202772</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1758945843.93432</v>
+        <v>2737430955.756963</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1070497581357185</v>
+        <v>0.09570981499846946</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0546944813100246</v>
+        <v>0.03604595553714065</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>25</v>
-      </c>
-      <c r="J6" t="n">
-        <v>879472977.6240151</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2649749196.003307</v>
+        <v>2350612703.648016</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09397887192212462</v>
+        <v>0.07564522253013159</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03696014226945266</v>
+        <v>0.03573783790641407</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>50</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1324874596.586591</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3554986530.96709</v>
+        <v>3753937354.984935</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1378869409503472</v>
+        <v>0.1652458335828072</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02991293059100458</v>
+        <v>0.02854281172661574</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>51</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1777493379.697948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1718518337.392227</v>
+        <v>2045562799.334889</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1791580296597095</v>
+        <v>0.1341089680625981</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03618881069258921</v>
+        <v>0.02462855955674238</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>859259234.3344114</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5519873159.442595</v>
+        <v>4301161536.35747</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1981647648523019</v>
+        <v>0.1344841098091223</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03973172816529535</v>
+        <v>0.04226461910995208</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>69</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2759936719.243548</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2949047241.703416</v>
+        <v>4228774928.865579</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1547104885773259</v>
+        <v>0.1542793875530571</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03621220866550012</v>
+        <v>0.03874416757211241</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>67</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1474523560.187009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3220968724.107781</v>
+        <v>3112655925.221733</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1803967983941625</v>
+        <v>0.1490367574739701</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03691404581606828</v>
+        <v>0.04920752653435601</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>56</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1610484400.271778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3899224323.621675</v>
+        <v>3579730390.110683</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08420922487414824</v>
+        <v>0.08944123635613216</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02453993010586626</v>
+        <v>0.01978017014575112</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>55</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1949612221.822481</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2962844058.866191</v>
+        <v>2974671537.426939</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1704358460189161</v>
+        <v>0.1472511431140557</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03133804181240998</v>
+        <v>0.03810103724884681</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>52</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1481422066.519046</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1515774747.744131</v>
+        <v>1244080799.362459</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06930419523922918</v>
+        <v>0.09715450728822538</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04156868802956061</v>
+        <v>0.04742116764618561</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>757887462.9161651</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2586221908.918692</v>
+        <v>1807015339.006027</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1058654582837977</v>
+        <v>0.08078304725682077</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04615143175837234</v>
+        <v>0.03458841041250148</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>25</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1293110977.533731</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4183864620.771271</v>
+        <v>3599146246.409566</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1520579845846448</v>
+        <v>0.1639725364186438</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05246682545517056</v>
+        <v>0.04479432387818943</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>48</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2091932335.856025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3953263170.792465</v>
+        <v>2443183916.716436</v>
       </c>
       <c r="F18" t="n">
-        <v>0.141867242184689</v>
+        <v>0.1833081411042544</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0270283896838777</v>
+        <v>0.02267862085289375</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>52</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1976631546.582915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>847210489.2476325</v>
+        <v>956431939.2052886</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1375798307160695</v>
+        <v>0.1277486557041601</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02247664649711675</v>
+        <v>0.02035525346552622</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>423605236.6288828</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2019878080.369188</v>
+        <v>2229416976.013546</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1236316429783282</v>
+        <v>0.1443113408286314</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02743752547932342</v>
+        <v>0.0300067277334485</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>26</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1009939064.376491</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2005878794.618139</v>
+        <v>1747876548.209743</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08537749971763126</v>
+        <v>0.08023838434000705</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03477005765648464</v>
+        <v>0.03118187298456185</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1002939432.641848</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2846027154.328449</v>
+        <v>2462936024.863496</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1319935780061094</v>
+        <v>0.1107896583803755</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03949400400680169</v>
+        <v>0.05098098267751498</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>46</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1423013647.887894</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1078998399.220263</v>
+        <v>1127621708.911159</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1212741307876299</v>
+        <v>0.1778864397075884</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03369533734088917</v>
+        <v>0.03767361552313518</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>539499256.4519485</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3528683660.922068</v>
+        <v>3969704424.149329</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1176058371698866</v>
+        <v>0.1469200124095349</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02985967677300148</v>
+        <v>0.02721664613937684</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>48</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1764341830.092304</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1359726117.091755</v>
+        <v>1204006173.725015</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1224147080344167</v>
+        <v>0.07522815396483519</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02861410813872681</v>
+        <v>0.02576480545002213</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>679863039.7345026</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1434030270.463637</v>
+        <v>1380221658.210249</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07525008249504128</v>
+        <v>0.09032608004086194</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02862751883293901</v>
+        <v>0.02657665029612381</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>717015213.5640316</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3273020225.328018</v>
+        <v>3642710584.23715</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1429017307724604</v>
+        <v>0.1393650168440786</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02610402036363404</v>
+        <v>0.02610103669036456</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>36</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1636510158.868998</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3621906488.970954</v>
+        <v>2664374288.69364</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1115402828167833</v>
+        <v>0.108285849625997</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03735018962871494</v>
+        <v>0.03596054638396576</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>52</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1810953309.650165</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3963792034.375449</v>
+        <v>5040278465.107658</v>
       </c>
       <c r="F29" t="n">
-        <v>0.114677115325437</v>
+        <v>0.1152489230828106</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04664612131999756</v>
+        <v>0.03965809859330956</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>74</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1981896036.518224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1558466539.640676</v>
+        <v>2024185830.614852</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1001473810287374</v>
+        <v>0.1151820725555849</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02822922923704227</v>
+        <v>0.03735157255720144</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>779233256.9893725</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1129722122.866545</v>
+        <v>920685582.9698662</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1049825100301512</v>
+        <v>0.07113443924735878</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05222746564443068</v>
+        <v>0.04783413614595573</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>564861029.4062058</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1638341918.665223</v>
+        <v>1299781478.429299</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08844293325284705</v>
+        <v>0.09721911679242834</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02499299277396184</v>
+        <v>0.02909326361933763</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>819171056.3204613</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1926064822.119654</v>
+        <v>2910167757.270982</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1662854944328026</v>
+        <v>0.1786629066871176</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05319136521166966</v>
+        <v>0.03758991670093282</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>48</v>
-      </c>
-      <c r="J33" t="n">
-        <v>963032498.1337159</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1195900142.582633</v>
+        <v>1030919921.041789</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07745056932891839</v>
+        <v>0.1008986300715037</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01949983486673431</v>
+        <v>0.0176882544967805</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>597950076.9566813</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1328346231.039003</v>
+        <v>1043845738.856926</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08344617966220459</v>
+        <v>0.07939110306922326</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02900000803118191</v>
+        <v>0.02827621591583572</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>664173062.0574319</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2840807434.436061</v>
+        <v>2477572700.448408</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1663641188189656</v>
+        <v>0.1114613204143497</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02212152270662615</v>
+        <v>0.02680233791215267</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>41</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1420403711.838569</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2833863124.327853</v>
+        <v>2781996897.809355</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0771849240971445</v>
+        <v>0.07361877295402089</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03424172766786109</v>
+        <v>0.02748302583121368</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>45</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1416931704.115203</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2030148440.46682</v>
+        <v>1431019160.234075</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1073225290468078</v>
+        <v>0.0959812577858962</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0394052186933619</v>
+        <v>0.03374700513228622</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1015074194.571501</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1377783230.048295</v>
+        <v>1901647368.775583</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1380297075777558</v>
+        <v>0.1373685833519983</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0308857858480993</v>
+        <v>0.02708862365983655</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>688891703.9848515</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1523725470.170939</v>
+        <v>1289002368.469067</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1151419821363536</v>
+        <v>0.1194485832302593</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05321449258087602</v>
+        <v>0.05643822934733674</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>761862695.3160294</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2902044190.818841</v>
+        <v>2592021883.886117</v>
       </c>
       <c r="F41" t="n">
-        <v>0.139292870640212</v>
+        <v>0.1371555201637722</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0353750324528661</v>
+        <v>0.04593458943462898</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>41</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1451022081.297169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4100601728.209572</v>
+        <v>3540710928.935894</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09232839310183891</v>
+        <v>0.08883829111351978</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03356542018721291</v>
+        <v>0.03020142312377767</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>56</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2050300900.271952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2418631013.373917</v>
+        <v>2292192124.467022</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1509010669226216</v>
+        <v>0.1973468767307812</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02576121010092637</v>
+        <v>0.02398525794138479</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>57</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1209315563.479819</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1599750721.47384</v>
+        <v>1597425667.942054</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09121633925010338</v>
+        <v>0.09991348975726574</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03573290276658336</v>
+        <v>0.02594213836510489</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>799875387.1744782</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1788940352.11837</v>
+        <v>2162377292.752342</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1302509506598864</v>
+        <v>0.1509340357645342</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0383790537852679</v>
+        <v>0.04339939424061517</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>894470145.6302265</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5373337060.331596</v>
+        <v>4565536970.546086</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1136459625001201</v>
+        <v>0.136972994076642</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05103994166617384</v>
+        <v>0.05905550907777373</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>58</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2686668578.326743</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5128498999.616593</v>
+        <v>4744549711.913943</v>
       </c>
       <c r="F47" t="n">
-        <v>0.198006730899957</v>
+        <v>0.1626339396053918</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04803672764322147</v>
+        <v>0.04155294637839895</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>44</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2564249562.861483</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4060395600.371498</v>
+        <v>3866280002.296313</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1023419791611208</v>
+        <v>0.1026096112403135</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02921982218204243</v>
+        <v>0.03001059190138235</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>56</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2030197830.995681</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1703559978.072351</v>
+        <v>1415753014.982088</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1366114293243662</v>
+        <v>0.1369744437528236</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03017697693558188</v>
+        <v>0.03314495482846407</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>851779989.3871166</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3126086495.942843</v>
+        <v>3442670164.179809</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1347707177462036</v>
+        <v>0.1078088387332143</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03861559308550627</v>
+        <v>0.05068911546682531</v>
       </c>
       <c r="H50" t="b">
         <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>55</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1563043298.787917</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1530299775.909967</v>
+        <v>1244006500.911141</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1399317372287829</v>
+        <v>0.1359802636233148</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03872153034503203</v>
+        <v>0.04569780350824989</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>765149885.9249693</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5188255629.155006</v>
+        <v>3400963250.176956</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1186940986224203</v>
+        <v>0.137807696553702</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05183993124138708</v>
+        <v>0.04148463031049467</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>67</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2594127801.082323</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2774824699.274475</v>
+        <v>2876092235.393062</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1396169220970649</v>
+        <v>0.1719795040297257</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03528525722717722</v>
+        <v>0.0249992425100734</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>46</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1387412397.599951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4601025868.159356</v>
+        <v>3852613986.583972</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1108471200424383</v>
+        <v>0.160206413129598</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04961205155921102</v>
+        <v>0.04309773402236213</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>54</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2300513045.325948</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4517567056.255445</v>
+        <v>3761801046.427141</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1942950601230191</v>
+        <v>0.1566291343198571</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02256643965789423</v>
+        <v>0.02769774893293636</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>44</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2258783525.836446</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1889922666.929889</v>
+        <v>1245286056.277239</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1057525580676981</v>
+        <v>0.1452768769310115</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05727072312339705</v>
+        <v>0.04569101745288554</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>944961317.9362075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3033855889.038783</v>
+        <v>2942618949.439175</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1346044623113629</v>
+        <v>0.1822167285955507</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02118542479984541</v>
+        <v>0.02254736624736298</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>52</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1516927951.736872</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1317738714.309295</v>
+        <v>1577968553.808968</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1902027741353031</v>
+        <v>0.128730871496795</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02455926114635472</v>
+        <v>0.03075300941513044</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>658869404.8809216</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4988265439.661004</v>
+        <v>5216214498.14026</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1081214365101792</v>
+        <v>0.09439261638202473</v>
       </c>
       <c r="G59" t="n">
-        <v>0.044088009687628</v>
+        <v>0.03731366864764978</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>44</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2494132648.092954</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2841851801.268706</v>
+        <v>3037696030.29966</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1345143177796539</v>
+        <v>0.1687670723068586</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02336287090078774</v>
+        <v>0.03070465945974855</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>52</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1420925954.355258</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2894980372.178229</v>
+        <v>2718635804.75335</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1206740143022225</v>
+        <v>0.1184049646419175</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03077131180654297</v>
+        <v>0.02942497636960925</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>56</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1447490176.426299</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1961655421.151276</v>
+        <v>1605122526.638437</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1261065585835455</v>
+        <v>0.1426408083563679</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03412784200118239</v>
+        <v>0.03748185950343896</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>980827762.8592082</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4386968957.087546</v>
+        <v>3629463917.99401</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07029502376675623</v>
+        <v>0.07694953764189839</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03663145700116618</v>
+        <v>0.04534660811026597</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>46</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2193484523.630074</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5044399195.609841</v>
+        <v>4857450648.328268</v>
       </c>
       <c r="F64" t="n">
-        <v>0.148610574784942</v>
+        <v>0.1713854034138706</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03071794104522794</v>
+        <v>0.02317866194900604</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>51</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2522199707.096611</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3735094860.861268</v>
+        <v>4583030462.680718</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1678290431820185</v>
+        <v>0.1148244824608459</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03095146329729143</v>
+        <v>0.02756152834714679</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>58</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1867547464.780564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5704414999.813581</v>
+        <v>4404229723.952872</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1051456730913176</v>
+        <v>0.1304053372196537</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04246589923298645</v>
+        <v>0.03628966557423886</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>47</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2852207564.762259</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3285926587.669028</v>
+        <v>2443302302.703419</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0629908441419398</v>
+        <v>0.09301716311416576</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05061087587454314</v>
+        <v>0.03256776630205982</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>52</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1642963287.86556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5915567360.401919</v>
+        <v>5353310925.051069</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1109409565619444</v>
+        <v>0.1092975908613483</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03531376246721275</v>
+        <v>0.03842537113468658</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>53</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2957783792.047948</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1692724892.910117</v>
+        <v>1542825699.103507</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1626521433409329</v>
+        <v>0.1445617086675834</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05616562398982671</v>
+        <v>0.03975741027962046</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>846362411.6787392</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2738156012.943596</v>
+        <v>2260447162.716667</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08967324906001149</v>
+        <v>0.09075287100048376</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04140306766965318</v>
+        <v>0.04481963077528239</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>46</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1369077966.352678</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4226172868.759733</v>
+        <v>3721610309.47179</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1437359530890681</v>
+        <v>0.161686680840832</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02389814121809746</v>
+        <v>0.03263275644398778</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>59</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2113086482.281974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2174257855.030515</v>
+        <v>2141035693.408041</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0913782264625887</v>
+        <v>0.06557337509577799</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03260943568430646</v>
+        <v>0.05010060399017949</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1087128845.719748</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2757297546.914941</v>
+        <v>2427924934.266975</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07235286039479909</v>
+        <v>0.1072662518702814</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0363760549889468</v>
+        <v>0.03926395983312524</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>61</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1378648791.614033</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2709626253.758561</v>
+        <v>3360828550.537232</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1739768548664238</v>
+        <v>0.1190907505240889</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03187718730646136</v>
+        <v>0.03366560587441254</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>55</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1354813217.342685</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2316135390.591102</v>
+        <v>1997128806.954262</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1429902600598247</v>
+        <v>0.1252031964815486</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02750602835479974</v>
+        <v>0.03525542649051805</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1158067629.862529</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4280688016.32684</v>
+        <v>5354467905.985176</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1227946921724895</v>
+        <v>0.1083244602795232</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02568414437055827</v>
+        <v>0.02254301148154527</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>37</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2140344004.642151</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1839600294.886134</v>
+        <v>1886300368.592563</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1870194466591732</v>
+        <v>0.1182394264906481</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01980534158879234</v>
+        <v>0.02498059702839739</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>919800185.2405272</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4217539690.567413</v>
+        <v>4622318357.50559</v>
       </c>
       <c r="F78" t="n">
-        <v>0.106653706761754</v>
+        <v>0.1059185674879426</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04603763071885283</v>
+        <v>0.04634300742300796</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>57</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2108769795.429764</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1271299576.147036</v>
+        <v>1543291671.980945</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1308497404503682</v>
+        <v>0.1283705069657405</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0390050949844237</v>
+        <v>0.03533148108468826</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>635649782.2629019</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5586928694.083924</v>
+        <v>3884165209.541687</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09015380157547119</v>
+        <v>0.1085885861034107</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02441947209210761</v>
+        <v>0.03558037910186219</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>34</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2793464425.397212</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3242441190.508803</v>
+        <v>3847272809.447604</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1371135634765807</v>
+        <v>0.1296495953137791</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02688287016393457</v>
+        <v>0.02065646378045971</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>37</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1621220530.315889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5525082286.085695</v>
+        <v>4393618677.783438</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2076113920073547</v>
+        <v>0.1871808653095825</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01868691226235397</v>
+        <v>0.0279869909919174</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>60</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2762541097.663338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1891403136.015629</v>
+        <v>1754466758.545712</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1323114306789192</v>
+        <v>0.1091775241134012</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02922754011392016</v>
+        <v>0.03111051142446686</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>945701539.7685682</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2116412068.975462</v>
+        <v>2389014393.084171</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08355395000247247</v>
+        <v>0.1076229783567909</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04541304786605908</v>
+        <v>0.03913161027171444</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1058206022.450172</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2614944452.081855</v>
+        <v>3350697961.41772</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1424181066879911</v>
+        <v>0.1533766930044558</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03605321702337793</v>
+        <v>0.04370491288247003</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>62</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1307472243.64002</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2283154033.265138</v>
+        <v>2017583304.146284</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1411873575606588</v>
+        <v>0.1433296686843409</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02663429929726474</v>
+        <v>0.01787508320184195</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>21</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1141577083.60869</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1459831889.333782</v>
+        <v>1074222585.983302</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1524647490078386</v>
+        <v>0.1841005258067995</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03511871853479766</v>
+        <v>0.04154966041796093</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>729916066.8130233</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3548900298.12292</v>
+        <v>2277352034.794712</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1468402119033823</v>
+        <v>0.154659693867301</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03394745432285876</v>
+        <v>0.02642804302568785</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>65</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1774450233.712433</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2853095563.381083</v>
+        <v>3254511241.30107</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1073149694588977</v>
+        <v>0.09757295983021985</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02965130037401639</v>
+        <v>0.03350758282659062</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>57</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1426547830.527969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1719607783.520008</v>
+        <v>1996201732.877045</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1040976851007098</v>
+        <v>0.1196053174567734</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04427943707878339</v>
+        <v>0.03891287079688642</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>859803910.6823407</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1877120668.124175</v>
+        <v>1926876852.593945</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1867103495969788</v>
+        <v>0.1584633366243439</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04728149472386518</v>
+        <v>0.04840321635137001</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>938560322.6558416</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2173964469.857085</v>
+        <v>2505189632.239209</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07816550769027256</v>
+        <v>0.07074072210619446</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04088977893186675</v>
+        <v>0.04517474547474968</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>40</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1086982194.201477</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4137556079.863801</v>
+        <v>3822228694.022674</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1030538822549549</v>
+        <v>0.1326758482246348</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03762894051717366</v>
+        <v>0.05439174532818124</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>49</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2068778031.633454</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2124899691.702204</v>
+        <v>2199657084.121871</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1460945988449392</v>
+        <v>0.1538290778448171</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03993229660634855</v>
+        <v>0.0335959386970979</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1062449860.436793</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2211572392.851911</v>
+        <v>2092581548.009112</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1137923986923062</v>
+        <v>0.114147302743909</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04890736466453315</v>
+        <v>0.04202976824958286</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>39</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1105786253.457764</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1446152610.982558</v>
+        <v>2170744627.359438</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09517852179846058</v>
+        <v>0.1150198204363776</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02925580771033876</v>
+        <v>0.02977066064136019</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>723076351.5821682</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4739479067.251277</v>
+        <v>3426870063.556841</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1398590903408943</v>
+        <v>0.1317953468313623</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02002221668670662</v>
+        <v>0.02645492262430724</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>52</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2369739649.437385</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2872821953.017104</v>
+        <v>3524628147.401439</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1244682940655519</v>
+        <v>0.103549405844811</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02976357326639975</v>
+        <v>0.03177309741233867</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>43</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1436410952.56354</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2950278568.377273</v>
+        <v>2587718505.683175</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1345800886210247</v>
+        <v>0.1005152375525681</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02289189208278354</v>
+        <v>0.0269737440398584</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>52</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1475139266.513335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4333191414.393171</v>
+        <v>4812372306.864098</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1704277067234418</v>
+        <v>0.1606088810398278</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01860693997397984</v>
+        <v>0.01739001082073762</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>50</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2166595804.441503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2209935839.016541</v>
+        <v>3017496168.448351</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2169680709024875</v>
+        <v>0.1633925239963789</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05572167560422728</v>
+        <v>0.0550987537169297</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>66</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1104967904.099065</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_163.xlsx
+++ b/output/fit_clients/fit_round_163.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2055658575.709241</v>
+        <v>1715936763.964547</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1017168552024555</v>
+        <v>0.09496873903900188</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02808728544536895</v>
+        <v>0.03080853446277081</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2071876720.356844</v>
+        <v>2345858409.891079</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1671011788411031</v>
+        <v>0.155432102438393</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04891406109175101</v>
+        <v>0.04516267198432041</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4041311758.128688</v>
+        <v>3357652110.017496</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1267253297897614</v>
+        <v>0.1453821650039029</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03815346033572013</v>
+        <v>0.02463119299358962</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4262852440.522717</v>
+        <v>3414577326.589794</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1108516350966965</v>
+        <v>0.07390167638904394</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04902960735942078</v>
+        <v>0.03889870360754029</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2737430955.756963</v>
+        <v>2464617486.491186</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09570981499846946</v>
+        <v>0.1213329883129966</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03604595553714065</v>
+        <v>0.0545297912708097</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2350612703.648016</v>
+        <v>3096762516.646366</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07564522253013159</v>
+        <v>0.08189017635256193</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03573783790641407</v>
+        <v>0.03398620124740927</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3753937354.984935</v>
+        <v>3831515384.317098</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1652458335828072</v>
+        <v>0.1713030667535852</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02854281172661574</v>
+        <v>0.02107844247813034</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2045562799.334889</v>
+        <v>1547833042.389107</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1341089680625981</v>
+        <v>0.1925074719960355</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02462855955674238</v>
+        <v>0.03154145677399909</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4301161536.35747</v>
+        <v>4464823102.111633</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1344841098091223</v>
+        <v>0.1812560067060448</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04226461910995208</v>
+        <v>0.03724340170480406</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4228774928.865579</v>
+        <v>4224746798.795878</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1542793875530571</v>
+        <v>0.1805171146176244</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03874416757211241</v>
+        <v>0.03045633736507397</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3112655925.221733</v>
+        <v>3168060971.28583</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1490367574739701</v>
+        <v>0.1919458012725855</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04920752653435601</v>
+        <v>0.03849841749500311</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3579730390.110683</v>
+        <v>4614843808.837011</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08944123635613216</v>
+        <v>0.06748038923528039</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01978017014575112</v>
+        <v>0.02711144800294086</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2974671537.426939</v>
+        <v>2389238641.37879</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1472511431140557</v>
+        <v>0.1876020789018566</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03810103724884681</v>
+        <v>0.04407053027535648</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1244080799.362459</v>
+        <v>1649848998.659731</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09715450728822538</v>
+        <v>0.1084199959226681</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04742116764618561</v>
+        <v>0.02999184243011419</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1807015339.006027</v>
+        <v>2032672850.544077</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08078304725682077</v>
+        <v>0.08990900976260578</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03458841041250148</v>
+        <v>0.03665406175179354</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3599146246.409566</v>
+        <v>3384799412.80249</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1639725364186438</v>
+        <v>0.1717782895324934</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04479432387818943</v>
+        <v>0.04547663004325005</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2443183916.716436</v>
+        <v>2605889337.56863</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1833081411042544</v>
+        <v>0.1502368913499986</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02267862085289375</v>
+        <v>0.03134306229018295</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>956431939.2052886</v>
+        <v>859858391.4832772</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1277486557041601</v>
+        <v>0.1494007076717316</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02035525346552622</v>
+        <v>0.02688675064784236</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2229416976.013546</v>
+        <v>2184502910.70937</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1443113408286314</v>
+        <v>0.1493690595640706</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0300067277334485</v>
+        <v>0.02055536383497037</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1747876548.209743</v>
+        <v>1664624818.11803</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08023838434000705</v>
+        <v>0.07975492549239693</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03118187298456185</v>
+        <v>0.04019228394907998</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2462936024.863496</v>
+        <v>2827256449.416293</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1107896583803755</v>
+        <v>0.1107344776751264</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05098098267751498</v>
+        <v>0.04148068974128915</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1127621708.911159</v>
+        <v>1549169501.235597</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1778864397075884</v>
+        <v>0.1417223107199994</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03767361552313518</v>
+        <v>0.03360293948226319</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3969704424.149329</v>
+        <v>3510085528.509519</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1469200124095349</v>
+        <v>0.1398554513345534</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02721664613937684</v>
+        <v>0.02338368980316094</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1204006173.725015</v>
+        <v>1154463929.373872</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07522815396483519</v>
+        <v>0.07936202525576284</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02576480545002213</v>
+        <v>0.02046447872121395</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1380221658.210249</v>
+        <v>958040515.0782291</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09032608004086194</v>
+        <v>0.1087314636293505</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02657665029612381</v>
+        <v>0.02646574011239354</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3642710584.23715</v>
+        <v>3573746336.038598</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1393650168440786</v>
+        <v>0.1511184764741196</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02610103669036456</v>
+        <v>0.0222224325861576</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1214,16 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2664374288.69364</v>
+        <v>2632015873.791173</v>
       </c>
       <c r="F28" t="n">
-        <v>0.108285849625997</v>
+        <v>0.1274979782299997</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03596054638396576</v>
+        <v>0.04097851232459252</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5040278465.107658</v>
+        <v>5425930461.14789</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1152489230828106</v>
+        <v>0.1319039639946971</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03965809859330956</v>
+        <v>0.04288486207767997</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2024185830.614852</v>
+        <v>2090962232.541474</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1151820725555849</v>
+        <v>0.1172895338787896</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03735157255720144</v>
+        <v>0.03612174869523094</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1298,16 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>920685582.9698662</v>
+        <v>1465173221.986605</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07113443924735878</v>
+        <v>0.07473367201746367</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04783413614595573</v>
+        <v>0.03594952782963452</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1326,16 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1299781478.429299</v>
+        <v>1396152575.198304</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09721911679242834</v>
+        <v>0.08936688139873401</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02909326361933763</v>
+        <v>0.02498644860857496</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2910167757.270982</v>
+        <v>2740126592.014271</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1786629066871176</v>
+        <v>0.140986017471785</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03758991670093282</v>
+        <v>0.05841749754659195</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1030919921.041789</v>
+        <v>1487986485.022928</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1008986300715037</v>
+        <v>0.08592077610642848</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0176882544967805</v>
+        <v>0.02580355731308611</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1043845738.856926</v>
+        <v>929305359.771914</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07939110306922326</v>
+        <v>0.09125867838129072</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02827621591583572</v>
+        <v>0.0444004412307557</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2477572700.448408</v>
+        <v>2493687410.754288</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1114613204143497</v>
+        <v>0.1205636540423365</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02680233791215267</v>
+        <v>0.02709597433747704</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2781996897.809355</v>
+        <v>2766396680.193441</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07361877295402089</v>
+        <v>0.1042575604481733</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02748302583121368</v>
+        <v>0.03370025028999644</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1431019160.234075</v>
+        <v>1596515235.375481</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0959812577858962</v>
+        <v>0.07931662416018231</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03374700513228622</v>
+        <v>0.02485668418204635</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,16 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1901647368.775583</v>
+        <v>2043688611.089867</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1373685833519983</v>
+        <v>0.1181772963474576</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02708862365983655</v>
+        <v>0.02901635173945869</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1289002368.469067</v>
+        <v>1711650722.247767</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1194485832302593</v>
+        <v>0.1354429244846992</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05643822934733674</v>
+        <v>0.0375169025691829</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2592021883.886117</v>
+        <v>2257281263.343417</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1371555201637722</v>
+        <v>0.1384677459767951</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04593458943462898</v>
+        <v>0.03980228017014948</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3540710928.935894</v>
+        <v>3957803278.230393</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08883829111351978</v>
+        <v>0.08751276687619224</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03020142312377767</v>
+        <v>0.04426538665859658</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2292192124.467022</v>
+        <v>2942254953.045927</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1973468767307812</v>
+        <v>0.1386423934511377</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02398525794138479</v>
+        <v>0.01784117738034001</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1597425667.942054</v>
+        <v>2120353566.472057</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09991348975726574</v>
+        <v>0.0666422114746696</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02594213836510489</v>
+        <v>0.02793822969440381</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2162377292.752342</v>
+        <v>2541240253.368914</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1509340357645342</v>
+        <v>0.1200401849205168</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04339939424061517</v>
+        <v>0.04037142380719861</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4565536970.546086</v>
+        <v>4623336057.734105</v>
       </c>
       <c r="F46" t="n">
-        <v>0.136972994076642</v>
+        <v>0.1245651342625606</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05905550907777373</v>
+        <v>0.03842099713489712</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4744549711.913943</v>
+        <v>4548475033.635976</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1626339396053918</v>
+        <v>0.1422223113764457</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04155294637839895</v>
+        <v>0.05196777655575095</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3866280002.296313</v>
+        <v>4576994676.459034</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1026096112403135</v>
+        <v>0.10434386215705</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03001059190138235</v>
+        <v>0.03670830438514568</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1415753014.982088</v>
+        <v>1799485505.074011</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1369744437528236</v>
+        <v>0.1395863733344484</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03314495482846407</v>
+        <v>0.03119475059835347</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3442670164.179809</v>
+        <v>4088855217.345044</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1078088387332143</v>
+        <v>0.1414803818106425</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05068911546682531</v>
+        <v>0.03730045790334127</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1244006500.911141</v>
+        <v>1002126420.13702</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1359802636233148</v>
+        <v>0.1657858036949343</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04569780350824989</v>
+        <v>0.04125821699475642</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3400963250.176956</v>
+        <v>4536230667.210976</v>
       </c>
       <c r="F52" t="n">
-        <v>0.137807696553702</v>
+        <v>0.1213312101325998</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04148463031049467</v>
+        <v>0.04234448282954589</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2876092235.393062</v>
+        <v>2815993698.612868</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1719795040297257</v>
+        <v>0.1565632010666152</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0249992425100734</v>
+        <v>0.03002866185587555</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3852613986.583972</v>
+        <v>3773127162.837259</v>
       </c>
       <c r="F54" t="n">
-        <v>0.160206413129598</v>
+        <v>0.1089257969058892</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04309773402236213</v>
+        <v>0.04837277866506164</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3761801046.427141</v>
+        <v>4930177771.238188</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1566291343198571</v>
+        <v>0.1669546558606408</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02769774893293636</v>
+        <v>0.02017038107398603</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1245286056.277239</v>
+        <v>1448999096.144851</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1452768769310115</v>
+        <v>0.1080397457449077</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04569101745288554</v>
+        <v>0.05240760483335492</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2942618949.439175</v>
+        <v>4166243967.157625</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1822167285955507</v>
+        <v>0.1569419513332057</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02254736624736298</v>
+        <v>0.01860034653141511</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1577968553.808968</v>
+        <v>1862135576.471311</v>
       </c>
       <c r="F58" t="n">
-        <v>0.128730871496795</v>
+        <v>0.1365355939418993</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03075300941513044</v>
+        <v>0.02695164804028182</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5216214498.14026</v>
+        <v>5254847504.891366</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09439261638202473</v>
+        <v>0.09494025539692456</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03731366864764978</v>
+        <v>0.04155632687872811</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3037696030.29966</v>
+        <v>2437678195.793076</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1687670723068586</v>
+        <v>0.177072320869161</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03070465945974855</v>
+        <v>0.02630002838557738</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2718635804.75335</v>
+        <v>2952390614.652897</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1184049646419175</v>
+        <v>0.1589287100148136</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02942497636960925</v>
+        <v>0.02952918961686871</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1605122526.638437</v>
+        <v>1991548345.951699</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1426408083563679</v>
+        <v>0.1576407605360979</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03748185950343896</v>
+        <v>0.03018646810375397</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,13 +2194,13 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3629463917.99401</v>
+        <v>4312381050.861824</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07694953764189839</v>
+        <v>0.07537727311770258</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04534660811026597</v>
+        <v>0.0450717898772733</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4857450648.328268</v>
+        <v>3831131090.355721</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1713854034138706</v>
+        <v>0.1561350035054771</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02317866194900604</v>
+        <v>0.03221831949881723</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4583030462.680718</v>
+        <v>4615195155.253171</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1148244824608459</v>
+        <v>0.1693737852952567</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02756152834714679</v>
+        <v>0.02776450820822795</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4404229723.952872</v>
+        <v>4860533623.247023</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1304053372196537</v>
+        <v>0.1441587372110681</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03628966557423886</v>
+        <v>0.04112472381416696</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2443302302.703419</v>
+        <v>2345692153.687951</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09301716311416576</v>
+        <v>0.08555640610566161</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03256776630205982</v>
+        <v>0.0466946718748525</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5353310925.051069</v>
+        <v>3723360059.732552</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1092975908613483</v>
+        <v>0.1474264375411743</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03842537113468658</v>
+        <v>0.03194612954932784</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1542825699.103507</v>
+        <v>1771052525.888113</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1445617086675834</v>
+        <v>0.150542353551937</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03975741027962046</v>
+        <v>0.05209239659782323</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2260447162.716667</v>
+        <v>3043523248.948463</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09075287100048376</v>
+        <v>0.06348382475588263</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04481963077528239</v>
+        <v>0.04683075060982094</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3721610309.47179</v>
+        <v>3653615214.298992</v>
       </c>
       <c r="F71" t="n">
-        <v>0.161686680840832</v>
+        <v>0.1219415656666475</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03263275644398778</v>
+        <v>0.02429562425471055</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2141035693.408041</v>
+        <v>2093636450.489169</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06557337509577799</v>
+        <v>0.06992131567638747</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05010060399017949</v>
+        <v>0.05185120701759546</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2427924934.266975</v>
+        <v>2569625478.421469</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1072662518702814</v>
+        <v>0.09119208478879202</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03926395983312524</v>
+        <v>0.04945397093380684</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3360828550.537232</v>
+        <v>2739828706.565274</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1190907505240889</v>
+        <v>0.1517008672014674</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03366560587441254</v>
+        <v>0.02928395659707047</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1997128806.954262</v>
+        <v>2070344146.918162</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1252031964815486</v>
+        <v>0.1042812334975358</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03525542649051805</v>
+        <v>0.03130576903434069</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5354467905.985176</v>
+        <v>4033027140.260029</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1083244602795232</v>
+        <v>0.124788385695215</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02254301148154527</v>
+        <v>0.03158671092770465</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1886300368.592563</v>
+        <v>2002388837.046814</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1182394264906481</v>
+        <v>0.1308224787063158</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02498059702839739</v>
+        <v>0.02656235483837925</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4622318357.50559</v>
+        <v>3401297255.160353</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1059185674879426</v>
+        <v>0.1347343947061672</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04634300742300796</v>
+        <v>0.03501868323688554</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1543291671.980945</v>
+        <v>1684187330.029679</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1283705069657405</v>
+        <v>0.1689252200924583</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03533148108468826</v>
+        <v>0.0334295549369795</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3884165209.541687</v>
+        <v>5576968915.047253</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1085885861034107</v>
+        <v>0.107967982992567</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03558037910186219</v>
+        <v>0.03716889874447971</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3847272809.447604</v>
+        <v>3572634447.989438</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1296495953137791</v>
+        <v>0.08653388942274005</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02065646378045971</v>
+        <v>0.02634809490290282</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4393618677.783438</v>
+        <v>4753289708.471296</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1871808653095825</v>
+        <v>0.2167233235614851</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0279869909919174</v>
+        <v>0.0228606292569734</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1754466758.545712</v>
+        <v>2412775386.905689</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1091775241134012</v>
+        <v>0.1239135183014503</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03111051142446686</v>
+        <v>0.0415035776104802</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2389014393.084171</v>
+        <v>1637978812.207564</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1076229783567909</v>
+        <v>0.07955383532521459</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03913161027171444</v>
+        <v>0.04749124498545699</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3350697961.41772</v>
+        <v>3127419944.73816</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1533766930044558</v>
+        <v>0.1492699226393767</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04370491288247003</v>
+        <v>0.04498911589576088</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,16 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2017583304.146284</v>
+        <v>2306256951.96873</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1433296686843409</v>
+        <v>0.1703735524305496</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01787508320184195</v>
+        <v>0.02350374614125589</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1074222585.983302</v>
+        <v>1448110236.553994</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1841005258067995</v>
+        <v>0.1779465181532064</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04154966041796093</v>
+        <v>0.04290814540829039</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2277352034.794712</v>
+        <v>3469114002.784093</v>
       </c>
       <c r="F88" t="n">
-        <v>0.154659693867301</v>
+        <v>0.1440987732927346</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02642804302568785</v>
+        <v>0.03608222977020793</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3254511241.30107</v>
+        <v>2657865993.923562</v>
       </c>
       <c r="F89" t="n">
-        <v>0.09757295983021985</v>
+        <v>0.1548450770520967</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03350758282659062</v>
+        <v>0.03310918336213963</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1996201732.877045</v>
+        <v>2009014400.750157</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1196053174567734</v>
+        <v>0.09572721897495332</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03891287079688642</v>
+        <v>0.03441597593599243</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1926876852.593945</v>
+        <v>1686751303.234506</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1584633366243439</v>
+        <v>0.1703232500262062</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04840321635137001</v>
+        <v>0.05080146029200121</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2505189632.239209</v>
+        <v>2973291652.820223</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07074072210619446</v>
+        <v>0.08613632261176428</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04517474547474968</v>
+        <v>0.03192637709352526</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3822228694.022674</v>
+        <v>5007107937.961612</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1326758482246348</v>
+        <v>0.08970825563376661</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05439174532818124</v>
+        <v>0.04280208549072075</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2199657084.121871</v>
+        <v>2229931369.980947</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1538290778448171</v>
+        <v>0.124345260237977</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0335959386970979</v>
+        <v>0.02866377567883191</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2092581548.009112</v>
+        <v>2097920111.478384</v>
       </c>
       <c r="F95" t="n">
-        <v>0.114147302743909</v>
+        <v>0.1064040419488455</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04202976824958286</v>
+        <v>0.03230024603563848</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2170744627.359438</v>
+        <v>1854923753.275324</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1150198204363776</v>
+        <v>0.1366961335198145</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02977066064136019</v>
+        <v>0.03660728209237587</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3426870063.556841</v>
+        <v>5080694478.363273</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1317953468313623</v>
+        <v>0.1527875426764428</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02645492262430724</v>
+        <v>0.02637957618574009</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3524628147.401439</v>
+        <v>2809018229.128655</v>
       </c>
       <c r="F98" t="n">
-        <v>0.103549405844811</v>
+        <v>0.1241752808142928</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03177309741233867</v>
+        <v>0.02865498662884583</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2587718505.683175</v>
+        <v>3302267580.397423</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1005152375525681</v>
+        <v>0.1315253406401118</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0269737440398584</v>
+        <v>0.02649384036100921</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4812372306.864098</v>
+        <v>3772824047.469625</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1606088810398278</v>
+        <v>0.1177250458098287</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01739001082073762</v>
+        <v>0.02139810600720839</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3017496168.448351</v>
+        <v>2201741248.802785</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1633925239963789</v>
+        <v>0.2084194424959197</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0550987537169297</v>
+        <v>0.04506215123602424</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_163.xlsx
+++ b/output/fit_clients/fit_round_163.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1715936763.964547</v>
+        <v>1748691900.893204</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09496873903900188</v>
+        <v>0.07405427696010704</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03080853446277081</v>
+        <v>0.03770988539755649</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2345858409.891079</v>
+        <v>2182445065.67231</v>
       </c>
       <c r="F3" t="n">
-        <v>0.155432102438393</v>
+        <v>0.1758837511477034</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04516267198432041</v>
+        <v>0.04988787660451457</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3357652110.017496</v>
+        <v>4689249093.783375</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1453821650039029</v>
+        <v>0.1601875353159292</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02463119299358962</v>
+        <v>0.02526322334693899</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>91</v>
+      </c>
+      <c r="J4" t="n">
+        <v>163</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3414577326.589794</v>
+        <v>3989677091.986244</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07390167638904394</v>
+        <v>0.1029915477122521</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03889870360754029</v>
+        <v>0.03497952452377901</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>67</v>
+      </c>
+      <c r="J5" t="n">
+        <v>163</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2464617486.491186</v>
+        <v>2450943656.353421</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1213329883129966</v>
+        <v>0.1180647288376527</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0545297912708097</v>
+        <v>0.04369911445451236</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3096762516.646366</v>
+        <v>2057885637.010668</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08189017635256193</v>
+        <v>0.08630782942430928</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03398620124740927</v>
+        <v>0.04426252898369349</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3831515384.317098</v>
+        <v>3513221350.979732</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1713030667535852</v>
+        <v>0.1573362900274319</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02107844247813034</v>
+        <v>0.02325455162449364</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>46</v>
+      </c>
+      <c r="J8" t="n">
+        <v>163</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +746,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1547833042.389107</v>
+        <v>2043615377.392766</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1925074719960355</v>
+        <v>0.1973940675002385</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03154145677399909</v>
+        <v>0.02768646623983663</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +781,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4464823102.111633</v>
+        <v>4347496012.701061</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1812560067060448</v>
+        <v>0.1800184189974417</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03724340170480406</v>
+        <v>0.0348085085324543</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>150</v>
+      </c>
+      <c r="J10" t="n">
+        <v>163</v>
+      </c>
+      <c r="K10" t="n">
+        <v>145.8955466121265</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +812,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4224746798.795878</v>
+        <v>4140854059.499616</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1805171146176244</v>
+        <v>0.1421663900312374</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03045633736507397</v>
+        <v>0.0456223850527416</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>66</v>
+      </c>
+      <c r="J11" t="n">
+        <v>163</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +847,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3168060971.28583</v>
+        <v>2790266113.22586</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1919458012725855</v>
+        <v>0.1452381636135013</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03849841749500311</v>
+        <v>0.03978738673607674</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +882,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4614843808.837011</v>
+        <v>4236505314.021981</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06748038923528039</v>
+        <v>0.07123510149784296</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02711144800294086</v>
+        <v>0.03114998698133335</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>80</v>
+      </c>
+      <c r="J13" t="n">
+        <v>162</v>
+      </c>
+      <c r="K13" t="n">
+        <v>131.8833935833114</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2389238641.37879</v>
+        <v>2646538654.724883</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1876020789018566</v>
+        <v>0.1331148994678667</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04407053027535648</v>
+        <v>0.03036094232017435</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>29</v>
+      </c>
+      <c r="J14" t="n">
+        <v>160</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1649848998.659731</v>
+        <v>1753703761.761904</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1084199959226681</v>
+        <v>0.06825888893976806</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02999184243011419</v>
+        <v>0.0331768719179741</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +995,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2032672850.544077</v>
+        <v>2484225237.381311</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08990900976260578</v>
+        <v>0.1151141226652657</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03665406175179354</v>
+        <v>0.04679569926741984</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,16 +1030,25 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3384799412.80249</v>
+        <v>4793351767.173538</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1717782895324934</v>
+        <v>0.1460228285937269</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04547663004325005</v>
+        <v>0.04522422232780364</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>79</v>
+      </c>
+      <c r="J17" t="n">
+        <v>162</v>
+      </c>
+      <c r="K17" t="n">
+        <v>120.721254106255</v>
       </c>
     </row>
     <row r="18">
@@ -934,17 +1067,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2605889337.56863</v>
+        <v>2504401865.987833</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1502368913499986</v>
+        <v>0.1358783450350377</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03134306229018295</v>
+        <v>0.02412767892697215</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>41</v>
+      </c>
+      <c r="J18" t="n">
+        <v>161</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>859858391.4832772</v>
+        <v>1253806053.766018</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1494007076717316</v>
+        <v>0.1618032646900711</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02688675064784236</v>
+        <v>0.02378919743713869</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1137,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2184502910.70937</v>
+        <v>1745898885.59498</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1493690595640706</v>
+        <v>0.1456365057604418</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02055536383497037</v>
+        <v>0.02202337485273595</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1172,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1664624818.11803</v>
+        <v>2058511455.283326</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07975492549239693</v>
+        <v>0.08901306125811793</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04019228394907998</v>
+        <v>0.03792185079162806</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1201,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2827256449.416293</v>
+        <v>2439539390.422506</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1107344776751264</v>
+        <v>0.1116699037758989</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04148068974128915</v>
+        <v>0.04571397766238781</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>42</v>
+      </c>
+      <c r="J22" t="n">
+        <v>162</v>
+      </c>
+      <c r="K22" t="n">
+        <v>40.11836303520146</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1549169501.235597</v>
+        <v>1509102396.898585</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1417223107199994</v>
+        <v>0.1798374343329815</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03360293948226319</v>
+        <v>0.0546025866477563</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,16 +1279,25 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3510085528.509519</v>
+        <v>3296312201.013287</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1398554513345534</v>
+        <v>0.1137884916230128</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02338368980316094</v>
+        <v>0.0365553080209069</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>49</v>
+      </c>
+      <c r="J24" t="n">
+        <v>162</v>
+      </c>
+      <c r="K24" t="n">
+        <v>72.52498432248534</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1154463929.373872</v>
+        <v>1378615189.075443</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07936202525576284</v>
+        <v>0.08691046714173514</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02046447872121395</v>
+        <v>0.02138412920224211</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>958040515.0782291</v>
+        <v>1326287384.712596</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1087314636293505</v>
+        <v>0.08633484205334901</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02646574011239354</v>
+        <v>0.0376103870690938</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1380,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3573746336.038598</v>
+        <v>4473324486.61799</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1511184764741196</v>
+        <v>0.106193236687844</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0222224325861576</v>
+        <v>0.02075374045585547</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>64</v>
+      </c>
+      <c r="J27" t="n">
+        <v>163</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1214,17 +1421,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2632015873.791173</v>
+        <v>2531198690.022911</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1274979782299997</v>
+        <v>0.1354729194920696</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04097851232459252</v>
+        <v>0.04467814849362906</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>31</v>
+      </c>
+      <c r="J28" t="n">
+        <v>156</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5425930461.14789</v>
+        <v>4375903544.768456</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1319039639946971</v>
+        <v>0.1435282916306679</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04288486207767997</v>
+        <v>0.03261343590213248</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>152</v>
+      </c>
+      <c r="J29" t="n">
+        <v>163</v>
+      </c>
+      <c r="K29" t="n">
+        <v>155.110836438433</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2090962232.541474</v>
+        <v>2004322220.601043</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1172895338787896</v>
+        <v>0.1230317863890699</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03612174869523094</v>
+        <v>0.03102796850377029</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1528,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1465173221.986605</v>
+        <v>917773352.9611049</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07473367201746367</v>
+        <v>0.08971751264295805</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03594952782963452</v>
+        <v>0.04655236799804138</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1396152575.198304</v>
+        <v>1605063718.805465</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08936688139873401</v>
+        <v>0.08356965033387566</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02498644860857496</v>
+        <v>0.03512018025849103</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2740126592.014271</v>
+        <v>2944741953.131804</v>
       </c>
       <c r="F33" t="n">
-        <v>0.140986017471785</v>
+        <v>0.1667353503663921</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05841749754659195</v>
+        <v>0.05840818470595897</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1487986485.022928</v>
+        <v>1075533394.47736</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08592077610642848</v>
+        <v>0.07424059682036696</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02580355731308611</v>
+        <v>0.02186118666666031</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>929305359.771914</v>
+        <v>882643299.9211835</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09125867838129072</v>
+        <v>0.1014479208389108</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0444004412307557</v>
+        <v>0.031294747028267</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1703,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2493687410.754288</v>
+        <v>2849525596.632505</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1205636540423365</v>
+        <v>0.177201860789764</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02709597433747704</v>
+        <v>0.02702436059312106</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2766396680.193441</v>
+        <v>2720245841.195674</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1042575604481733</v>
+        <v>0.07137888992771713</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03370025028999644</v>
+        <v>0.0424536138678577</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1773,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1596515235.375481</v>
+        <v>1662010532.556718</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07931662416018231</v>
+        <v>0.1014089083256561</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02485668418204635</v>
+        <v>0.02734642439110231</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2043688611.089867</v>
+        <v>1754947625.432939</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1181772963474576</v>
+        <v>0.1649034824272139</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02901635173945869</v>
+        <v>0.03146879033158526</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1711650722.247767</v>
+        <v>1347014257.761794</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1354429244846992</v>
+        <v>0.1267888082222395</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0375169025691829</v>
+        <v>0.03782218276620587</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2257281263.343417</v>
+        <v>1865788596.110285</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1384677459767951</v>
+        <v>0.1331811505271924</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03980228017014948</v>
+        <v>0.04371722423616577</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1907,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3957803278.230393</v>
+        <v>3004154902.837965</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08751276687619224</v>
+        <v>0.08876271631679963</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04426538665859658</v>
+        <v>0.03610126764620193</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>61</v>
+      </c>
+      <c r="J42" t="n">
+        <v>162</v>
+      </c>
+      <c r="K42" t="n">
+        <v>69.11562013651935</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2942254953.045927</v>
+        <v>2459820915.546838</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1386423934511377</v>
+        <v>0.1848099672270754</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01784117738034001</v>
+        <v>0.01891316096274737</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2120353566.472057</v>
+        <v>1496026336.85174</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0666422114746696</v>
+        <v>0.1023157115658446</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02793822969440381</v>
+        <v>0.03488619476024522</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2541240253.368914</v>
+        <v>2360999081.69549</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1200401849205168</v>
+        <v>0.1232313512423565</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04037142380719861</v>
+        <v>0.04216127150584674</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2049,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4623336057.734105</v>
+        <v>3489652390.316286</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1245651342625606</v>
+        <v>0.1123050741335546</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03842099713489712</v>
+        <v>0.03962117225479898</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>92</v>
+      </c>
+      <c r="J46" t="n">
+        <v>162</v>
+      </c>
+      <c r="K46" t="n">
+        <v>92.5726294389553</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2086,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4548475033.635976</v>
+        <v>3679685166.303609</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1422223113764457</v>
+        <v>0.1588191387500012</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05196777655575095</v>
+        <v>0.04630500400988943</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>72</v>
+      </c>
+      <c r="J47" t="n">
+        <v>163</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2121,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4576994676.459034</v>
+        <v>3154746211.969417</v>
       </c>
       <c r="F48" t="n">
-        <v>0.10434386215705</v>
+        <v>0.0962355332488922</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03670830438514568</v>
+        <v>0.0283364798227428</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>73</v>
+      </c>
+      <c r="J48" t="n">
+        <v>162</v>
+      </c>
+      <c r="K48" t="n">
+        <v>76.07037537066898</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2164,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1799485505.074011</v>
+        <v>1590116495.480727</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1395863733344484</v>
+        <v>0.1501261403183444</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03119475059835347</v>
+        <v>0.0420863966589488</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2199,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4088855217.345044</v>
+        <v>4190902863.63558</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1414803818106425</v>
+        <v>0.1424955110909705</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03730045790334127</v>
+        <v>0.03436869520642984</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>54</v>
+      </c>
+      <c r="J50" t="n">
+        <v>163</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1002126420.13702</v>
+        <v>938539175.2022706</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1657858036949343</v>
+        <v>0.1616325644095839</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04125821699475642</v>
+        <v>0.04385054952631273</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2269,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4536230667.210976</v>
+        <v>3325927531.824389</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1213312101325998</v>
+        <v>0.124970660748294</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04234448282954589</v>
+        <v>0.05731525298034355</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
       </c>
+      <c r="I52" t="n">
+        <v>117</v>
+      </c>
+      <c r="J52" t="n">
+        <v>161</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,22 +2298,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2815993698.612868</v>
+        <v>2428826033.6924</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1565632010666152</v>
+        <v>0.1595677019546908</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03002866185587555</v>
+        <v>0.02395421840076274</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>21</v>
+      </c>
+      <c r="J53" t="n">
+        <v>162</v>
+      </c>
+      <c r="K53" t="n">
+        <v>40.65800445261171</v>
       </c>
     </row>
     <row r="54">
@@ -1936,23 +2335,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3773127162.837259</v>
+        <v>4524664711.394261</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1089257969058892</v>
+        <v>0.1333230082935729</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04837277866506164</v>
+        <v>0.05263257161598735</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>79</v>
+      </c>
+      <c r="J54" t="n">
+        <v>163</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2370,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4930177771.238188</v>
+        <v>3109735431.636712</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1669546558606408</v>
+        <v>0.2119156952441963</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02017038107398603</v>
+        <v>0.02410145621441977</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>74</v>
+      </c>
+      <c r="J55" t="n">
+        <v>161</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1448999096.144851</v>
+        <v>1625252778.460195</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1080397457449077</v>
+        <v>0.1293311083970277</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05240760483335492</v>
+        <v>0.03621530438450064</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2440,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4166243967.157625</v>
+        <v>3338889003.061961</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1569419513332057</v>
+        <v>0.1296104161377589</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01860034653141511</v>
+        <v>0.01800449656547274</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>66</v>
+      </c>
+      <c r="J57" t="n">
+        <v>160</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1862135576.471311</v>
+        <v>1199775623.799197</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1365355939418993</v>
+        <v>0.1751403426960005</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02695164804028182</v>
+        <v>0.02893289078742552</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2510,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5254847504.891366</v>
+        <v>5389056615.276965</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09494025539692456</v>
+        <v>0.08997679507096243</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04155632687872811</v>
+        <v>0.03792154860054164</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>78</v>
+      </c>
+      <c r="J59" t="n">
+        <v>163</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2545,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2437678195.793076</v>
+        <v>3306263590.796857</v>
       </c>
       <c r="F60" t="n">
-        <v>0.177072320869161</v>
+        <v>0.1620998667830439</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02630002838557738</v>
+        <v>0.02669428029130928</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>25</v>
+      </c>
+      <c r="J60" t="n">
+        <v>160</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2952390614.652897</v>
+        <v>2480708096.495805</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1589287100148136</v>
+        <v>0.1717724854174183</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02952918961686871</v>
+        <v>0.02897587380728187</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>5</v>
+      </c>
+      <c r="J61" t="n">
+        <v>158</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1991548345.951699</v>
+        <v>1502420984.08466</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1576407605360979</v>
+        <v>0.131107047588943</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03018646810375397</v>
+        <v>0.04014548971725591</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,16 +2656,25 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4312381050.861824</v>
+        <v>5359162341.868236</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07537727311770258</v>
+        <v>0.07967626273676551</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0450717898772733</v>
+        <v>0.02884808622090362</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>80</v>
+      </c>
+      <c r="J63" t="n">
+        <v>162</v>
+      </c>
+      <c r="K63" t="n">
+        <v>125.3041310222905</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2687,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3831131090.355721</v>
+        <v>4250200879.265162</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1561350035054771</v>
+        <v>0.1222532647833085</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03221831949881723</v>
+        <v>0.03077257787115146</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>80</v>
+      </c>
+      <c r="J64" t="n">
+        <v>163</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2722,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4615195155.253171</v>
+        <v>5680817277.379824</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1693737852952567</v>
+        <v>0.1422995115870376</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02776450820822795</v>
+        <v>0.02561282752854509</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>135</v>
+      </c>
+      <c r="J65" t="n">
+        <v>163</v>
+      </c>
+      <c r="K65" t="n">
+        <v>136.0511387018137</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2759,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4860533623.247023</v>
+        <v>5362401469.392142</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1441587372110681</v>
+        <v>0.1533130681434516</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04112472381416696</v>
+        <v>0.03838240692357211</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>80</v>
+      </c>
+      <c r="J66" t="n">
+        <v>163</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2794,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2345692153.687951</v>
+        <v>3106038781.117599</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08555640610566161</v>
+        <v>0.1015301945710079</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0466946718748525</v>
+        <v>0.04474252920809912</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>157</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2829,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3723360059.732552</v>
+        <v>6021785370.467382</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1474264375411743</v>
+        <v>0.1444267139599374</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03194612954932784</v>
+        <v>0.05128700709016761</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>82</v>
+      </c>
+      <c r="J68" t="n">
+        <v>162</v>
+      </c>
+      <c r="K68" t="n">
+        <v>125.8043710401853</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1771052525.888113</v>
+        <v>1588973881.425837</v>
       </c>
       <c r="F69" t="n">
-        <v>0.150542353551937</v>
+        <v>0.1145265960289869</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05209239659782323</v>
+        <v>0.04768264117130538</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2907,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3043523248.948463</v>
+        <v>2611567674.064434</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06348382475588263</v>
+        <v>0.08360463802140866</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04683075060982094</v>
+        <v>0.04457514000957689</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>23</v>
+      </c>
+      <c r="J70" t="n">
+        <v>161</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2936,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3653615214.298992</v>
+        <v>5590561042.839831</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1219415656666475</v>
+        <v>0.14132745101149</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02429562425471055</v>
+        <v>0.02698323857839266</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>128</v>
+      </c>
+      <c r="J71" t="n">
+        <v>163</v>
+      </c>
+      <c r="K71" t="n">
+        <v>135.6295392214704</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2093636450.489169</v>
+        <v>2013799805.230332</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06992131567638747</v>
+        <v>0.095046642354776</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05185120701759546</v>
+        <v>0.04944209475381104</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2569625478.421469</v>
+        <v>2158567177.334135</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09119208478879202</v>
+        <v>0.08206259727919477</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04945397093380684</v>
+        <v>0.03207828903291241</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>10</v>
+      </c>
+      <c r="J73" t="n">
+        <v>134</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3049,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2739828706.565274</v>
+        <v>2996521098.401227</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1517008672014674</v>
+        <v>0.1520365239579022</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02928395659707047</v>
+        <v>0.02780937097682564</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>48</v>
+      </c>
+      <c r="J74" t="n">
+        <v>157</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2070344146.918162</v>
+        <v>1716929216.14592</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1042812334975358</v>
+        <v>0.1475039519341923</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03130576903434069</v>
+        <v>0.02894843203894098</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3113,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4033027140.260029</v>
+        <v>4945936300.04974</v>
       </c>
       <c r="F76" t="n">
-        <v>0.124788385695215</v>
+        <v>0.1244985099169457</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03158671092770465</v>
+        <v>0.02336399060119553</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>75</v>
+      </c>
+      <c r="J76" t="n">
+        <v>162</v>
+      </c>
+      <c r="K76" t="n">
+        <v>110.7315139096821</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2002388837.046814</v>
+        <v>2288145599.385604</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1308224787063158</v>
+        <v>0.1795273504910959</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02656235483837925</v>
+        <v>0.0258517613886065</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3185,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3401297255.160353</v>
+        <v>3327397620.17602</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1347343947061672</v>
+        <v>0.08549034586008528</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03501868323688554</v>
+        <v>0.04789658974478975</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>83</v>
+      </c>
+      <c r="J78" t="n">
+        <v>161</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2642,17 +3226,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1684187330.029679</v>
+        <v>1625998946.552923</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1689252200924583</v>
+        <v>0.1308534754334656</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0334295549369795</v>
+        <v>0.03525458723776114</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3261,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5576968915.047253</v>
+        <v>5061099551.835332</v>
       </c>
       <c r="F80" t="n">
-        <v>0.107967982992567</v>
+        <v>0.08979919017171795</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03716889874447971</v>
+        <v>0.0364091968362297</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>79</v>
+      </c>
+      <c r="J80" t="n">
+        <v>163</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,22 +3290,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3572634447.989438</v>
+        <v>4242325564.820298</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08653388942274005</v>
+        <v>0.08701300765052883</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02634809490290282</v>
+        <v>0.02194979465109697</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>75</v>
+      </c>
+      <c r="J81" t="n">
+        <v>162</v>
+      </c>
+      <c r="K81" t="n">
+        <v>116.6450239798274</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4753289708.471296</v>
+        <v>5203105734.8611</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2167233235614851</v>
+        <v>0.1962540437284029</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0228606292569734</v>
+        <v>0.02385728712234523</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>118</v>
+      </c>
+      <c r="J82" t="n">
+        <v>163</v>
+      </c>
+      <c r="K82" t="n">
+        <v>142.851930529408</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2412775386.905689</v>
+        <v>2348230082.259221</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1239135183014503</v>
+        <v>0.1324076125311579</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0415035776104802</v>
+        <v>0.02894534040207202</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1637978812.207564</v>
+        <v>2516069667.065752</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07955383532521459</v>
+        <v>0.1060359229654247</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04749124498545699</v>
+        <v>0.03661568531654303</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,22 +3434,31 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3127419944.73816</v>
+        <v>3197998269.851215</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1492699226393767</v>
+        <v>0.114903432633974</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04498911589576088</v>
+        <v>0.04377328059731504</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>25</v>
+      </c>
+      <c r="J85" t="n">
+        <v>162</v>
+      </c>
+      <c r="K85" t="n">
+        <v>82.56978574710924</v>
       </c>
     </row>
     <row r="86">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2306256951.96873</v>
+        <v>2397303820.188528</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1703735524305496</v>
+        <v>0.126969413643885</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02350374614125589</v>
+        <v>0.01834814479612434</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1448110236.553994</v>
+        <v>1457147709.979237</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1779465181532064</v>
+        <v>0.1423275911951425</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04290814540829039</v>
+        <v>0.02831093704801301</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3469114002.784093</v>
+        <v>2776331454.691567</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1440987732927346</v>
+        <v>0.1720629788791261</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03608222977020793</v>
+        <v>0.02456721867722182</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>23</v>
+      </c>
+      <c r="J88" t="n">
+        <v>157</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2657865993.923562</v>
+        <v>3006191733.099968</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1548450770520967</v>
+        <v>0.1216536777253032</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03310918336213963</v>
+        <v>0.03578085989333395</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>13</v>
+      </c>
+      <c r="J89" t="n">
+        <v>152</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2009014400.750157</v>
+        <v>1547409666.010905</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09572721897495332</v>
+        <v>0.122197369667483</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03441597593599243</v>
+        <v>0.04308238926738708</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1686751303.234506</v>
+        <v>1677931863.514669</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1703232500262062</v>
+        <v>0.1410006595455352</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05080146029200121</v>
+        <v>0.05526814651527367</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2973291652.820223</v>
+        <v>2864132421.507147</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08613632261176428</v>
+        <v>0.08682861967797752</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03192637709352526</v>
+        <v>0.03206718154744658</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5007107937.961612</v>
+        <v>3373221267.088662</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08970825563376661</v>
+        <v>0.1234205442510235</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04280208549072075</v>
+        <v>0.04598416193242852</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>73</v>
+      </c>
+      <c r="J93" t="n">
+        <v>162</v>
+      </c>
+      <c r="K93" t="n">
+        <v>80.22204607652253</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2229931369.980947</v>
+        <v>2278861554.591165</v>
       </c>
       <c r="F94" t="n">
-        <v>0.124345260237977</v>
+        <v>0.123400747573633</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02866377567883191</v>
+        <v>0.03390388508252199</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2097920111.478384</v>
+        <v>2318181147.419437</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1064040419488455</v>
+        <v>0.1006059439264667</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03230024603563848</v>
+        <v>0.04135702063823544</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1854923753.275324</v>
+        <v>2376878800.642382</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1366961335198145</v>
+        <v>0.1374797984371394</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03660728209237587</v>
+        <v>0.03742507456449545</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,17 +3864,24 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5080694478.363273</v>
+        <v>5316450408.623512</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1527875426764428</v>
+        <v>0.1375136397199747</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02637957618574009</v>
+        <v>0.02181534876362292</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>78</v>
+      </c>
+      <c r="J97" t="n">
+        <v>163</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2809018229.128655</v>
+        <v>3820228695.402214</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1241752808142928</v>
+        <v>0.1176436978012139</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02865498662884583</v>
+        <v>0.02633641258673181</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>38</v>
+      </c>
+      <c r="J98" t="n">
+        <v>163</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3302267580.397423</v>
+        <v>2864876841.237959</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1315253406401118</v>
+        <v>0.09610139815239205</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02649384036100921</v>
+        <v>0.02670871394552588</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3772824047.469625</v>
+        <v>3445312025.400848</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1177250458098287</v>
+        <v>0.1489672392199619</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02139810600720839</v>
+        <v>0.02522037277924249</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>68</v>
+      </c>
+      <c r="J100" t="n">
+        <v>162</v>
+      </c>
+      <c r="K100" t="n">
+        <v>83.22140485745913</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2201741248.802785</v>
+        <v>3614521190.303495</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2084194424959197</v>
+        <v>0.2095163363371521</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04506215123602424</v>
+        <v>0.04134522557876444</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>13</v>
+      </c>
+      <c r="J101" t="n">
+        <v>163</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
